--- a/Nov 2025/Scorecard Open Dataset.xlsx
+++ b/Nov 2025/Scorecard Open Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\BDL\Research Projects\Economic Scorcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15C2A8D-D608-450E-B743-54317551FA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8026EB3B-01F3-49B7-895A-C0E5B03ACD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34440" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="139">
   <si>
     <t>CMA</t>
   </si>
@@ -50,36 +50,15 @@
     <t>Province Code</t>
   </si>
   <si>
-    <t>Productivity Growth</t>
-  </si>
-  <si>
-    <t>GDP Growth</t>
-  </si>
-  <si>
     <t>Airport Connections</t>
   </si>
   <si>
     <t>Teachers per 1000 pupils</t>
   </si>
   <si>
-    <t>Vacancy Rate Health Sector</t>
-  </si>
-  <si>
-    <t>Vacancy Rate Tech Sector</t>
-  </si>
-  <si>
     <t>Gini coefficient</t>
   </si>
   <si>
-    <t>Average Population Growth</t>
-  </si>
-  <si>
-    <t>Youth Population Growth</t>
-  </si>
-  <si>
-    <t>Unemployment Rate</t>
-  </si>
-  <si>
     <t>VisitorView Nights (Stays)</t>
   </si>
   <si>
@@ -92,15 +71,9 @@
     <t>Disposable Income Growth</t>
   </si>
   <si>
-    <t>Employment Growth</t>
-  </si>
-  <si>
     <t>Commercial Rent</t>
   </si>
   <si>
-    <t>Average Commute Time</t>
-  </si>
-  <si>
     <t>Calgary, AB</t>
   </si>
   <si>
@@ -332,15 +305,6 @@
     <t>Proportion of population travelling to work that does not use a car</t>
   </si>
   <si>
-    <t>Healthcare Access</t>
-  </si>
-  <si>
-    <t>Housing Affordability</t>
-  </si>
-  <si>
-    <t>Travel to Work</t>
-  </si>
-  <si>
     <t>Proportion of population with a regular healthcare provider</t>
   </si>
   <si>
@@ -348,9 +312,6 @@
   </si>
   <si>
     <t>CAP (Crimes Against Persons/Property) Crime Index</t>
-  </si>
-  <si>
-    <t>Parks and Recreation</t>
   </si>
   <si>
     <t xml:space="preserve"> Square km of Greenspace per 100,000 people (Greenspace includes parks/gardens, nature reserve grounds,
@@ -366,18 +327,12 @@
     <t>Proportion of employed workforce employed in cultural, art, recreation, or sport</t>
   </si>
   <si>
-    <t>Cultural Occupations</t>
-  </si>
-  <si>
     <t>Foot Traffic</t>
   </si>
   <si>
     <t>Percentage change in days spent at usual workplace in 2024 compared to 2019</t>
   </si>
   <si>
-    <t>Education Level</t>
-  </si>
-  <si>
     <t>Proportion of the population (aged 15+) with post-secondary education</t>
   </si>
   <si>
@@ -385,9 +340,6 @@
   </si>
   <si>
     <t>Proportion of Labour force not currently employed.</t>
-  </si>
-  <si>
-    <t>Immigrants Retention</t>
   </si>
   <si>
     <t>Percentage of Immigrants remaining after five years</t>
@@ -448,10 +400,61 @@
 (2019=100).</t>
   </si>
   <si>
-    <t>Private Sector Employment</t>
-  </si>
-  <si>
-    <t>Average length of stay in nights</t>
+    <t>Visitor view stays at night</t>
+  </si>
+  <si>
+    <t>Average length of stay at nights</t>
+  </si>
+  <si>
+    <t>Private Sector Employment (%)</t>
+  </si>
+  <si>
+    <t>Average Commute Time (mins)</t>
+  </si>
+  <si>
+    <t>Housing Affordability (%)</t>
+  </si>
+  <si>
+    <t>Travel to Work (%)</t>
+  </si>
+  <si>
+    <t>Healthcare Access (%)</t>
+  </si>
+  <si>
+    <t>Parks and Recreation (km^2)</t>
+  </si>
+  <si>
+    <t>Average Population Growth  (%)</t>
+  </si>
+  <si>
+    <t>Cultural Occupations  (%)</t>
+  </si>
+  <si>
+    <t>Education Level  (%)</t>
+  </si>
+  <si>
+    <t>Youth Population Growth (%)</t>
+  </si>
+  <si>
+    <t>Unemployment Rate (%)</t>
+  </si>
+  <si>
+    <t>Immigrants Retention (%)</t>
+  </si>
+  <si>
+    <t>Vacancy Rate Health Sector (%)</t>
+  </si>
+  <si>
+    <t>Vacancy Rate Tech Sector (%)</t>
+  </si>
+  <si>
+    <t>GDP Growth (%)</t>
+  </si>
+  <si>
+    <t>Productivity Growth (%)</t>
+  </si>
+  <si>
+    <t>Employment Growth (%)</t>
   </si>
 </sst>
 </file>
@@ -840,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AN13" sqref="AN13"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -876,245 +879,245 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="8" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="V2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="AI2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="AO2" s="8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7">
         <v>69174.319074687795</v>
@@ -1230,16 +1233,16 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7">
         <v>61704.5487539608</v>
@@ -1355,16 +1358,16 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7">
         <v>47143.745636906599</v>
@@ -1480,16 +1483,16 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>42229.046387421397</v>
@@ -1605,16 +1608,16 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7">
         <v>43155.278014310003</v>
@@ -1730,16 +1733,16 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7">
         <v>48018.955095216399</v>
@@ -1855,16 +1858,16 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7">
         <v>44225.2534845505</v>
@@ -1980,16 +1983,16 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7">
         <v>50723.209626750402</v>
@@ -2105,16 +2108,16 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
         <v>30263.681583801699</v>
@@ -2230,16 +2233,16 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7">
         <v>55791.327524591499</v>
@@ -2355,16 +2358,16 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E13" s="7">
         <v>48231.661402280697</v>
@@ -2480,16 +2483,16 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E14" s="7">
         <v>62629.351085232796</v>
@@ -2605,16 +2608,16 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E15" s="7">
         <v>65580.975073922396</v>
@@ -2730,16 +2733,16 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E16" s="7">
         <v>40530.855814068702</v>
@@ -2852,16 +2855,16 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E17" s="7">
         <v>35282.6339361098</v>
@@ -2977,16 +2980,16 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E18" s="7">
         <v>56224.752196658301</v>
@@ -3102,16 +3105,16 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E19" s="7">
         <v>60656.989397321398</v>
@@ -3227,16 +3230,16 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E20" s="7">
         <v>57063.723850572002</v>
@@ -3352,16 +3355,16 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E21" s="7">
         <v>53199.194643472001</v>
@@ -3477,16 +3480,16 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E22" s="7">
         <v>32588.335102704001</v>
@@ -3599,16 +3602,16 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E23" s="7">
         <v>49681.014352351602</v>
@@ -3724,6 +3727,14 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="I24" s="6"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3732,30 +3743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Projecttype xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2" xsi:nil="true"/>
-    <ProjectCode xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Client xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2" xsi:nil="true"/>
-    <Authors xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Authors>
-    <Subjectmatter xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dc063631-6b84-449e-b0d5-7fa9dfefee6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3764,7 +3751,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D12741375EA85A489DAD9C9F436B0551" ma:contentTypeVersion="30" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c73bbfff2ad1433698d20af4e61d77">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1c280df6-2e78-4afb-b655-415f70ad15e2" xmlns:ns3="4efa3da2-ca60-48f2-a344-9bc3addfa2dd" xmlns:ns4="dc063631-6b84-449e-b0d5-7fa9dfefee6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24d98044d50c8c825d8a6ab7d1bfdc3f" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4093,19 +4080,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D005C3B-89D3-4840-A86E-01167952133B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1c280df6-2e78-4afb-b655-415f70ad15e2"/>
-    <ds:schemaRef ds:uri="dc063631-6b84-449e-b0d5-7fa9dfefee6c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Projecttype xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2" xsi:nil="true"/>
+    <ProjectCode xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Client xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2" xsi:nil="true"/>
+    <Authors xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Authors>
+    <Subjectmatter xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c280df6-2e78-4afb-b655-415f70ad15e2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dc063631-6b84-449e-b0d5-7fa9dfefee6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2135D1B6-162B-4887-AF4F-599F627B73BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4113,7 +4112,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D49FEF24-FC02-4ED3-9B71-BFBBD39DD37B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4132,4 +4131,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D005C3B-89D3-4840-A86E-01167952133B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1c280df6-2e78-4afb-b655-415f70ad15e2"/>
+    <ds:schemaRef ds:uri="dc063631-6b84-449e-b0d5-7fa9dfefee6c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Nov 2025/Scorecard Open Dataset.xlsx
+++ b/Nov 2025/Scorecard Open Dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\BDL\Research Projects\Economic Scorcard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\BDL\Research Projects\Economic Scorecard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8026EB3B-01F3-49B7-895A-C0E5B03ACD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04710BD0-1435-4993-BB93-E9C0B02521CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34440" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1183,10 +1183,10 @@
         <v>85.822608830999798</v>
       </c>
       <c r="Z3">
-        <v>454086</v>
+        <v>212390</v>
       </c>
       <c r="AA3">
-        <v>4886600</v>
+        <v>1193726</v>
       </c>
       <c r="AB3">
         <v>2.41270450971684</v>
@@ -1222,7 +1222,7 @@
         <v>25.3</v>
       </c>
       <c r="AM3">
-        <v>10.761397620715</v>
+        <v>5.6204435237063892</v>
       </c>
       <c r="AN3">
         <v>40324</v>
@@ -1308,10 +1308,10 @@
         <v>84.614941267487296</v>
       </c>
       <c r="Z4">
-        <v>260328</v>
+        <v>121237</v>
       </c>
       <c r="AA4">
-        <v>3198520</v>
+        <v>869041</v>
       </c>
       <c r="AB4">
         <v>3.9642174231452301</v>
@@ -1347,7 +1347,7 @@
         <v>25.6</v>
       </c>
       <c r="AM4">
-        <v>12.2865001075566</v>
+        <v>7.1681169939869838</v>
       </c>
       <c r="AN4">
         <v>20950</v>
@@ -1433,10 +1433,10 @@
         <v>68.912852728359397</v>
       </c>
       <c r="Z5">
-        <v>153614</v>
+        <v>56440</v>
       </c>
       <c r="AA5">
-        <v>1407897</v>
+        <v>274449</v>
       </c>
       <c r="AB5">
         <v>4.3643948511476802</v>
@@ -1472,7 +1472,7 @@
         <v>25.9</v>
       </c>
       <c r="AM5">
-        <v>9.1651607275378506</v>
+        <v>4.8626683203401839</v>
       </c>
       <c r="AN5">
         <v>6324</v>
@@ -1558,10 +1558,10 @@
         <v>88.893446825966606</v>
       </c>
       <c r="Z6">
-        <v>133410</v>
+        <v>103398</v>
       </c>
       <c r="AA6">
-        <v>1683898</v>
+        <v>756966</v>
       </c>
       <c r="AB6">
         <v>-2.4223903402526701</v>
@@ -1597,7 +1597,7 @@
         <v>30.6</v>
       </c>
       <c r="AM6">
-        <v>12.621977363016301</v>
+        <v>7.3208959554343407</v>
       </c>
       <c r="AN6">
         <v>11907</v>
@@ -1683,10 +1683,10 @@
         <v>86.014928188407794</v>
       </c>
       <c r="Z7">
-        <v>72435</v>
+        <v>57141</v>
       </c>
       <c r="AA7">
-        <v>546621</v>
+        <v>324591</v>
       </c>
       <c r="AB7">
         <v>15.4431074354251</v>
@@ -1722,7 +1722,7 @@
         <v>25.634473792461701</v>
       </c>
       <c r="AM7">
-        <v>7.5463657071857497</v>
+        <v>5.680527117131307</v>
       </c>
       <c r="AN7">
         <v>4048</v>
@@ -1808,10 +1808,10 @@
         <v>83.4157986111111</v>
       </c>
       <c r="Z8">
-        <v>96314</v>
+        <v>70209</v>
       </c>
       <c r="AA8">
-        <v>1507543</v>
+        <v>590910</v>
       </c>
       <c r="AB8">
         <v>2.0335962055487302</v>
@@ -1847,7 +1847,7 @@
         <v>27.2</v>
       </c>
       <c r="AM8">
-        <v>15.652376601532501</v>
+        <v>8.416442336452592</v>
       </c>
       <c r="AN8">
         <v>8211</v>
@@ -1933,10 +1933,10 @@
         <v>84.4225797685163</v>
       </c>
       <c r="Z9">
-        <v>77036</v>
+        <v>54757</v>
       </c>
       <c r="AA9">
-        <v>1211209</v>
+        <v>471198</v>
       </c>
       <c r="AB9">
         <v>2.4257086303478799</v>
@@ -1972,7 +1972,7 @@
         <v>23.6</v>
       </c>
       <c r="AM9">
-        <v>15.7226361701023</v>
+        <v>8.6052559490110845</v>
       </c>
       <c r="AN9">
         <v>5782</v>
@@ -2058,10 +2058,10 @@
         <v>88.656570542799201</v>
       </c>
       <c r="Z10">
-        <v>897166</v>
+        <v>822260</v>
       </c>
       <c r="AA10">
-        <v>10501868</v>
+        <v>6374974</v>
       </c>
       <c r="AB10">
         <v>-1.7424212997131101</v>
@@ -2097,7 +2097,7 @@
         <v>29</v>
       </c>
       <c r="AM10">
-        <v>11.705601861862799</v>
+        <v>7.7529905382725657</v>
       </c>
       <c r="AN10">
         <v>69454</v>
@@ -2183,10 +2183,10 @@
         <v>87.718013399517204</v>
       </c>
       <c r="Z11">
-        <v>67165</v>
+        <v>50194</v>
       </c>
       <c r="AA11">
-        <v>860748</v>
+        <v>378714</v>
       </c>
       <c r="AB11">
         <v>1.9831945815675001</v>
@@ -2222,7 +2222,7 @@
         <v>24.383125146377001</v>
       </c>
       <c r="AM11">
-        <v>12.815424700364799</v>
+        <v>7.5450053791289795</v>
       </c>
       <c r="AN11">
         <v>6295</v>
@@ -2308,10 +2308,10 @@
         <v>83.359371647935106</v>
       </c>
       <c r="Z12">
-        <v>332959</v>
+        <v>472006</v>
       </c>
       <c r="AA12">
-        <v>3535390</v>
+        <v>2886306</v>
       </c>
       <c r="AB12">
         <v>-0.70211299379148995</v>
@@ -2347,7 +2347,7 @@
         <v>26.2</v>
       </c>
       <c r="AM12">
-        <v>10.6180941196964</v>
+        <v>6.1149773519828141</v>
       </c>
       <c r="AN12">
         <v>24854</v>
@@ -2433,10 +2433,10 @@
         <v>78.347311165295693</v>
       </c>
       <c r="Z13">
-        <v>285760</v>
+        <v>225639</v>
       </c>
       <c r="AA13">
-        <v>1697306</v>
+        <v>981755</v>
       </c>
       <c r="AB13">
         <v>-2.1086754326774</v>
@@ -2472,7 +2472,7 @@
         <v>23.2</v>
       </c>
       <c r="AM13">
-        <v>5.9396206606942901</v>
+        <v>4.350998719193047</v>
       </c>
       <c r="AN13">
         <v>10312</v>
@@ -2558,10 +2558,10 @@
         <v>69.994351673497803</v>
       </c>
       <c r="Z14">
-        <v>34054</v>
+        <v>7633</v>
       </c>
       <c r="AA14">
-        <v>556888</v>
+        <v>48589</v>
       </c>
       <c r="AB14">
         <v>-10.4766126107645</v>
@@ -2597,7 +2597,7 @@
         <v>22.951219239128399</v>
       </c>
       <c r="AM14">
-        <v>16.3530862747401</v>
+        <v>6.3656491549849337</v>
       </c>
       <c r="AN14">
         <v>2852</v>
@@ -2683,10 +2683,10 @@
         <v>71.047188184204501</v>
       </c>
       <c r="Z15">
-        <v>45359</v>
+        <v>9578</v>
       </c>
       <c r="AA15">
-        <v>752723</v>
+        <v>62842</v>
       </c>
       <c r="AB15">
         <v>7.4113559075632898</v>
@@ -2722,7 +2722,7 @@
         <v>22.7078348657422</v>
       </c>
       <c r="AM15">
-        <v>16.5947882448908</v>
+        <v>6.5610774692002503</v>
       </c>
       <c r="AN15">
         <v>3950</v>
@@ -2808,10 +2808,10 @@
         <v>82.4825059878833</v>
       </c>
       <c r="Z16">
-        <v>29393</v>
+        <v>26014</v>
       </c>
       <c r="AA16">
-        <v>344194</v>
+        <v>195313</v>
       </c>
       <c r="AB16">
         <v>-2.87595865288429</v>
@@ -2844,7 +2844,7 @@
         <v>24.154106399622101</v>
       </c>
       <c r="AM16">
-        <v>11.7100670227605</v>
+        <v>7.5079956946259703</v>
       </c>
       <c r="AN16">
         <v>2472</v>
@@ -2930,10 +2930,10 @@
         <v>89.020374790064494</v>
       </c>
       <c r="Z17">
-        <v>283920</v>
+        <v>205612</v>
       </c>
       <c r="AA17">
-        <v>1425549</v>
+        <v>607701</v>
       </c>
       <c r="AB17">
         <v>-13.909106287709699</v>
@@ -2969,7 +2969,7 @@
         <v>21.1</v>
       </c>
       <c r="AM17">
-        <v>5.0209530853761599</v>
+        <v>2.9555716592416785</v>
       </c>
       <c r="AN17">
         <v>4328</v>
@@ -3055,10 +3055,10 @@
         <v>62.349682049990498</v>
       </c>
       <c r="Z18">
-        <v>42795</v>
+        <v>10632</v>
       </c>
       <c r="AA18">
-        <v>430010</v>
+        <v>62457</v>
       </c>
       <c r="AB18">
         <v>-0.69633336960069603</v>
@@ -3094,7 +3094,7 @@
         <v>19.986779107151701</v>
       </c>
       <c r="AM18">
-        <v>10.0481364645402</v>
+        <v>5.8744356659142216</v>
       </c>
       <c r="AN18">
         <v>2120</v>
@@ -3180,10 +3180,10 @@
         <v>87.533386131807305</v>
       </c>
       <c r="Z19">
-        <v>1709033</v>
+        <v>1379232</v>
       </c>
       <c r="AA19">
-        <v>24822528</v>
+        <v>10952725</v>
       </c>
       <c r="AB19">
         <v>2.2286114491084299</v>
@@ -3219,7 +3219,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="AM19">
-        <v>14.524311701412399</v>
+        <v>7.9411766838356419</v>
       </c>
       <c r="AN19">
         <v>159771</v>
@@ -3305,10 +3305,10 @@
         <v>87.671963811073795</v>
       </c>
       <c r="Z20">
-        <v>1114525</v>
+        <v>937179</v>
       </c>
       <c r="AA20">
-        <v>12748298</v>
+        <v>7109089</v>
       </c>
       <c r="AB20">
         <v>9.1426952281552705</v>
@@ -3344,7 +3344,7 @@
         <v>30.5</v>
       </c>
       <c r="AM20">
-        <v>11.438323949664699</v>
+        <v>7.585625584866925</v>
       </c>
       <c r="AN20">
         <v>61412</v>
@@ -3430,10 +3430,10 @@
         <v>88.483246163572602</v>
       </c>
       <c r="Z21">
-        <v>215516</v>
+        <v>165145</v>
       </c>
       <c r="AA21">
-        <v>1652599</v>
+        <v>895717</v>
       </c>
       <c r="AB21">
         <v>7.7072854129482398</v>
@@ -3469,7 +3469,7 @@
         <v>20.5</v>
       </c>
       <c r="AM21">
-        <v>7.6681035282763199</v>
+        <v>5.4238214902055768</v>
       </c>
       <c r="AN21">
         <v>7844</v>
@@ -3555,10 +3555,10 @@
         <v>87.851418726670005</v>
       </c>
       <c r="Z22">
-        <v>66503</v>
+        <v>41187</v>
       </c>
       <c r="AA22">
-        <v>998661</v>
+        <v>363880</v>
       </c>
       <c r="AB22">
         <v>-1.05728809831933</v>
@@ -3591,7 +3591,7 @@
         <v>21.2</v>
       </c>
       <c r="AM22">
-        <v>15.0167811978407</v>
+        <v>8.8348265229319924</v>
       </c>
       <c r="AN22">
         <v>3615</v>
@@ -3677,10 +3677,10 @@
         <v>79.990250135722505</v>
       </c>
       <c r="Z23">
-        <v>93386</v>
+        <v>24995</v>
       </c>
       <c r="AA23">
-        <v>1565653</v>
+        <v>163795</v>
       </c>
       <c r="AB23">
         <v>1.09076005041735</v>
@@ -3716,7 +3716,7 @@
         <v>22.9</v>
       </c>
       <c r="AM23">
-        <v>16.765393099608101</v>
+        <v>6.5531106221244251</v>
       </c>
       <c r="AN23">
         <v>8288</v>
@@ -3743,15 +3743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D12741375EA85A489DAD9C9F436B0551" ma:contentTypeVersion="30" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c73bbfff2ad1433698d20af4e61d77">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1c280df6-2e78-4afb-b655-415f70ad15e2" xmlns:ns3="4efa3da2-ca60-48f2-a344-9bc3addfa2dd" xmlns:ns4="dc063631-6b84-449e-b0d5-7fa9dfefee6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24d98044d50c8c825d8a6ab7d1bfdc3f" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4080,7 +4071,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4104,15 +4095,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2135D1B6-162B-4887-AF4F-599F627B73BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D49FEF24-FC02-4ED3-9B71-BFBBD39DD37B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4133,7 +4125,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D005C3B-89D3-4840-A86E-01167952133B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4143,4 +4135,12 @@
     <ds:schemaRef ds:uri="dc063631-6b84-449e-b0d5-7fa9dfefee6c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2135D1B6-162B-4887-AF4F-599F627B73BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>